--- a/data/trans_orig/P19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E6DEA5-5F34-4C63-92D8-7C71F3955E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C155BC1-C4C1-48E4-AD13-D2B9B8D82B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBDE285A-8569-48DF-9CB6-C4683105AA73}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D78CE39-74D1-43C4-A9C2-61C337A16155}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>19,78%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>80,22%</t>
   </si>
   <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>28,72%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>31,87%</t>
@@ -161,31 +161,31 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>35,22%</t>
+    <t>35,06%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>65,04%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
   </si>
   <si>
     <t>68,13%</t>
   </si>
   <si>
-    <t>64,78%</t>
+    <t>64,94%</t>
   </si>
   <si>
     <t>70,98%</t>
@@ -197,1729 +197,1699 @@
     <t>22,36%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>21,94%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>28,57%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>71,43%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>73,18%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16FDA48-8245-45EF-AD36-ED13B42E13C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39049F27-5A22-4F52-B862-2BA8BC754D79}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2956,7 +2926,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2941,13 @@
         <v>263813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>258</v>
@@ -2986,13 +2956,13 @@
         <v>249005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>526</v>
@@ -3001,13 +2971,13 @@
         <v>512818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3033,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3075,13 +3045,13 @@
         <v>68057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3090,13 +3060,13 @@
         <v>59962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -3105,13 +3075,13 @@
         <v>128019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3096,13 @@
         <v>135251</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
@@ -3141,13 +3111,13 @@
         <v>147706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>278</v>
@@ -3156,13 +3126,13 @@
         <v>282957</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3188,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3230,13 +3200,13 @@
         <v>53083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -3245,13 +3215,13 @@
         <v>95579</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -3260,13 +3230,13 @@
         <v>148662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3251,13 @@
         <v>217728</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -3296,13 +3266,13 @@
         <v>182565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>389</v>
@@ -3311,13 +3281,13 @@
         <v>400293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3385,13 +3355,13 @@
         <v>177336</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>238</v>
@@ -3400,13 +3370,13 @@
         <v>243102</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>411</v>
@@ -3415,13 +3385,13 @@
         <v>420437</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3406,13 @@
         <v>436779</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>383</v>
@@ -3451,13 +3421,13 @@
         <v>395117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>807</v>
@@ -3466,13 +3436,13 @@
         <v>831897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3498,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3510,13 @@
         <v>154688</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -3555,13 +3525,13 @@
         <v>208177</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>350</v>
@@ -3570,13 +3540,13 @@
         <v>362865</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3561,13 @@
         <v>589107</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>550</v>
@@ -3606,13 +3576,13 @@
         <v>575334</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1131</v>
@@ -3621,13 +3591,13 @@
         <v>1164441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3665,13 @@
         <v>814918</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1036</v>
@@ -3710,13 +3680,13 @@
         <v>1058996</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1839</v>
@@ -3725,13 +3695,13 @@
         <v>1873914</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3716,13 @@
         <v>2460713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2260</v>
@@ -3761,13 +3731,13 @@
         <v>2319276</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4670</v>
@@ -3776,13 +3746,13 @@
         <v>4779990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3808,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FED3F8-8C23-484A-B582-32BE88208C98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C53844-2F99-4BE5-AD69-189B6F1CF22E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,39 +3954,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +3999,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,39 +4044,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4093,13 @@
         <v>124857</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>124</v>
@@ -4138,13 +4108,13 @@
         <v>133790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>242</v>
@@ -4153,13 +4123,13 @@
         <v>258648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4144,13 @@
         <v>380670</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4189,13 +4159,13 @@
         <v>389975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>710</v>
@@ -4204,13 +4174,13 @@
         <v>770644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4248,13 @@
         <v>75424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -4293,13 +4263,13 @@
         <v>122897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -4308,13 +4278,13 @@
         <v>198321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4299,13 @@
         <v>247259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -4344,13 +4314,13 @@
         <v>218123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -4359,13 +4329,13 @@
         <v>465382</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4403,13 @@
         <v>175314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -4448,13 +4418,13 @@
         <v>178157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -4463,13 +4433,13 @@
         <v>353471</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4454,13 @@
         <v>492256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -4499,13 +4469,13 @@
         <v>498039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>920</v>
@@ -4514,13 +4484,13 @@
         <v>990295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4546,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4588,13 +4558,13 @@
         <v>41320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4603,13 +4573,13 @@
         <v>71393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -4618,13 +4588,13 @@
         <v>112713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4609,13 @@
         <v>171298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -4654,13 +4624,13 @@
         <v>147234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -4669,13 +4639,13 @@
         <v>318532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,7 +4701,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4743,13 +4713,13 @@
         <v>83580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4758,13 +4728,13 @@
         <v>84973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4773,13 +4743,13 @@
         <v>168553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4764,13 @@
         <v>190401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -4809,13 +4779,13 @@
         <v>195058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>375</v>
@@ -4824,13 +4794,13 @@
         <v>385459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,7 +4856,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4898,13 +4868,13 @@
         <v>161356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>215</v>
@@ -4913,13 +4883,13 @@
         <v>233063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
@@ -4928,13 +4898,13 @@
         <v>394419</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4919,13 @@
         <v>501432</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>421</v>
@@ -4964,13 +4934,13 @@
         <v>460790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="M23" s="7">
         <v>887</v>
@@ -4979,13 +4949,13 @@
         <v>962222</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5011,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5023,13 @@
         <v>182744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>232</v>
@@ -5068,13 +5038,13 @@
         <v>254583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>403</v>
@@ -5083,13 +5053,13 @@
         <v>437327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5074,13 @@
         <v>596354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>525</v>
@@ -5119,13 +5089,13 @@
         <v>569270</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>1071</v>
@@ -5134,10 +5104,10 @@
         <v>1165624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>304</v>
@@ -5241,10 +5211,10 @@
         <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5229,13 @@
         <v>2579669</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>2301</v>
@@ -5274,13 +5244,13 @@
         <v>2478488</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>4711</v>
@@ -5289,13 +5259,13 @@
         <v>5058157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F075096A-D85A-47E7-805A-12BDD8F5F7D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE7A95D-3F06-40C2-B019-C7BDCD5913EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5469,13 @@
         <v>89212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -5514,13 +5484,13 @@
         <v>100151</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -5529,13 +5499,13 @@
         <v>189363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5520,13 @@
         <v>204549</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>178</v>
@@ -5565,13 +5535,13 @@
         <v>188552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
@@ -5580,13 +5550,13 @@
         <v>393101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,10 +5642,10 @@
         <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -5684,13 +5654,13 @@
         <v>311465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5675,13 @@
         <v>360281</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>323</v>
@@ -5720,13 +5690,13 @@
         <v>353912</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>666</v>
@@ -5735,13 +5705,13 @@
         <v>714194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,10 +5782,10 @@
         <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5824,13 +5794,13 @@
         <v>104902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -5839,13 +5809,13 @@
         <v>199696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5830,13 @@
         <v>223771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5875,13 +5845,13 @@
         <v>231407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -5890,13 +5860,13 @@
         <v>455178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5934,13 @@
         <v>114201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>137</v>
@@ -5979,13 +5949,13 @@
         <v>146663</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -5994,13 +5964,13 @@
         <v>260864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +5985,13 @@
         <v>255763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -6030,13 +6000,13 @@
         <v>240620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -6045,13 +6015,13 @@
         <v>496383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,7 +6077,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6119,13 +6089,13 @@
         <v>34601</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -6134,13 +6104,13 @@
         <v>56423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -6149,13 +6119,13 @@
         <v>91025</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6140,13 @@
         <v>176620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -6185,13 +6155,13 @@
         <v>162164</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -6200,13 +6170,13 @@
         <v>338783</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,7 +6232,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6274,13 +6244,13 @@
         <v>93905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -6289,13 +6259,13 @@
         <v>112797</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -6304,13 +6274,13 @@
         <v>206702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6295,13 @@
         <v>169218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -6340,13 +6310,13 @@
         <v>160318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -6355,13 +6325,13 @@
         <v>329536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6387,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6429,13 +6399,13 @@
         <v>185184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -6444,13 +6414,13 @@
         <v>256857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -6459,13 +6429,13 @@
         <v>442040</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6450,13 @@
         <v>471374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>405</v>
@@ -6495,13 +6465,13 @@
         <v>434437</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>825</v>
@@ -6510,13 +6480,13 @@
         <v>905812</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6542,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6584,13 +6554,13 @@
         <v>232158</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -6599,13 +6569,13 @@
         <v>277205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -6614,13 +6584,13 @@
         <v>509363</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6605,13 @@
         <v>546425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -6650,13 +6620,13 @@
         <v>548962</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>1029</v>
@@ -6665,13 +6635,13 @@
         <v>1095387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6709,13 @@
         <v>986348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
@@ -6754,13 +6724,13 @@
         <v>1224171</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>374</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>2087</v>
@@ -6769,13 +6739,13 @@
         <v>2210518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6760,13 @@
         <v>2408002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>2172</v>
@@ -6805,13 +6775,13 @@
         <v>2320371</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>382</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>4482</v>
@@ -6820,13 +6790,13 @@
         <v>4728374</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,7 +6852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13A2E34-63C6-4A41-8C21-6C8A4E5DF187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2134362-A71F-4F7F-8FF3-8FC64B8143D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7030,13 +7000,13 @@
         <v>96853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7045,13 +7015,13 @@
         <v>106822</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>317</v>
@@ -7060,13 +7030,13 @@
         <v>203674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7051,13 @@
         <v>163445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>336</v>
@@ -7096,13 +7066,13 @@
         <v>163513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>551</v>
@@ -7111,13 +7081,13 @@
         <v>326959</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7155,13 @@
         <v>127771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -7200,13 +7170,13 @@
         <v>148473</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -7215,13 +7185,13 @@
         <v>276245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7206,13 @@
         <v>390584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -7251,13 +7221,13 @@
         <v>402609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -7266,13 +7236,13 @@
         <v>793192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7310,13 @@
         <v>65542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -7355,13 +7325,13 @@
         <v>112914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -7370,13 +7340,13 @@
         <v>178456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,28 +7361,28 @@
         <v>254131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
       </c>
       <c r="I11" s="7">
-        <v>259056</v>
+        <v>259057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -7421,13 +7391,13 @@
         <v>513187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>455</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,7 +7424,7 @@
         <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>371970</v>
+        <v>371971</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7495,13 +7465,13 @@
         <v>125417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -7510,13 +7480,13 @@
         <v>185826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
@@ -7525,13 +7495,13 @@
         <v>311243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7516,13 @@
         <v>196224</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -7561,13 +7531,13 @@
         <v>238431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>552</v>
@@ -7576,13 +7546,13 @@
         <v>434655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,7 +7608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7650,13 +7620,13 @@
         <v>24302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -7665,13 +7635,13 @@
         <v>40859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -7680,13 +7650,13 @@
         <v>65161</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7671,13 @@
         <v>172446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>402</v>
@@ -7716,13 +7686,13 @@
         <v>188191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>649</v>
@@ -7731,13 +7701,13 @@
         <v>360636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,7 +7763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7805,13 +7775,13 @@
         <v>66605</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -7820,13 +7790,13 @@
         <v>79192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -7835,13 +7805,13 @@
         <v>145797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>514</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7826,13 @@
         <v>210618</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
@@ -7871,13 +7841,13 @@
         <v>196430</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>632</v>
@@ -7886,13 +7856,13 @@
         <v>407048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,7 +7918,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7960,13 +7930,13 @@
         <v>214944</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -7975,13 +7945,13 @@
         <v>267580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>560</v>
@@ -7990,13 +7960,13 @@
         <v>482524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +7981,13 @@
         <v>400083</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -8026,13 +7996,13 @@
         <v>522334</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>966</v>
@@ -8041,13 +8011,13 @@
         <v>922417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,7 +8073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8115,13 +8085,13 @@
         <v>160445</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -8130,13 +8100,13 @@
         <v>206641</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="M25" s="7">
         <v>385</v>
@@ -8145,13 +8115,13 @@
         <v>367086</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8136,13 @@
         <v>691200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="H26" s="7">
         <v>809</v>
@@ -8181,13 +8151,13 @@
         <v>653116</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="M26" s="7">
         <v>1424</v>
@@ -8196,13 +8166,13 @@
         <v>1344316</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8240,13 @@
         <v>881879</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>273</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="H28" s="7">
         <v>1577</v>
@@ -8285,28 +8255,28 @@
         <v>1148307</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>220</v>
+        <v>603</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>604</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>2410</v>
       </c>
       <c r="N28" s="7">
-        <v>2030185</v>
+        <v>2030186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8291,13 @@
         <v>2478730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
         <v>3736</v>
@@ -8336,13 +8306,13 @@
         <v>2623681</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>228</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>613</v>
       </c>
       <c r="M29" s="7">
         <v>6255</v>
@@ -8351,13 +8321,13 @@
         <v>5102411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,7 +8369,7 @@
         <v>8665</v>
       </c>
       <c r="N30" s="7">
-        <v>7132596</v>
+        <v>7132597</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8413,7 +8383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C155BC1-C4C1-48E4-AD13-D2B9B8D82B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{886D9D54-4D5D-431B-B4FB-33313ADC2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D78CE39-74D1-43C4-A9C2-61C337A16155}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1DB47D20-F6D1-4357-9486-9D507697041F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1446 +77,1458 @@
     <t>19,78%</t>
   </si>
   <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
     <t>79,68%</t>
   </si>
   <si>
@@ -1607,9 +1619,6 @@
     <t>41,73%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
     <t>45,98%</t>
   </si>
   <si>
@@ -1635,9 +1644,6 @@
   </si>
   <si>
     <t>54,02%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
   </si>
   <si>
     <t>12,35%</t>
@@ -2301,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39049F27-5A22-4F52-B862-2BA8BC754D79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E29C619-98D7-43A1-98BE-0DDD464E89A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3713,7 +3719,7 @@
         <v>2410</v>
       </c>
       <c r="D29" s="7">
-        <v>2460713</v>
+        <v>2460714</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3764,7 +3770,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275631</v>
+        <v>3275632</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C53844-2F99-4BE5-AD69-189B6F1CF22E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D15298-096C-4D9D-8EAF-955AE25BCEE4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4281,10 +4287,10 @@
         <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4305,13 @@
         <v>247259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -4314,13 +4320,13 @@
         <v>218123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -4329,13 +4335,13 @@
         <v>465382</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4409,13 @@
         <v>175314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -4418,13 +4424,13 @@
         <v>178157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -4433,13 +4439,13 @@
         <v>353471</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4460,13 @@
         <v>492256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -4469,13 +4475,13 @@
         <v>498039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>920</v>
@@ -4484,13 +4490,13 @@
         <v>990295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4564,13 @@
         <v>41320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4573,13 +4579,13 @@
         <v>71393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -4588,13 +4594,13 @@
         <v>112713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4615,13 @@
         <v>171298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -4624,13 +4630,13 @@
         <v>147234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -4639,13 +4645,13 @@
         <v>318532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4719,13 @@
         <v>83580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4728,13 +4734,13 @@
         <v>84973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4743,13 +4749,13 @@
         <v>168553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4770,13 @@
         <v>190401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -4779,13 +4785,13 @@
         <v>195058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>375</v>
@@ -4794,10 +4800,10 @@
         <v>385459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>272</v>
@@ -4886,10 +4892,10 @@
         <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
@@ -4898,13 +4904,13 @@
         <v>394419</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4925,13 @@
         <v>501432</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>421</v>
@@ -4934,13 +4940,13 @@
         <v>460790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>887</v>
@@ -4949,13 +4955,13 @@
         <v>962222</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5029,13 @@
         <v>182744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>232</v>
@@ -5038,13 +5044,13 @@
         <v>254583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>403</v>
@@ -5053,13 +5059,13 @@
         <v>437327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>53</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5080,13 @@
         <v>596354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>525</v>
@@ -5089,13 +5095,13 @@
         <v>569270</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>1071</v>
@@ -5104,13 +5110,13 @@
         <v>1165624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5184,13 @@
         <v>844597</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="H28" s="7">
         <v>996</v>
@@ -5193,10 +5199,10 @@
         <v>1078857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>310</v>
@@ -5214,7 +5220,7 @@
         <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5235,13 @@
         <v>2579669</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>2301</v>
@@ -5244,13 +5250,13 @@
         <v>2478488</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>4711</v>
@@ -5259,13 +5265,13 @@
         <v>5058157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE7A95D-3F06-40C2-B019-C7BDCD5913EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A80EDD-EA37-45AD-9782-10C0937EA368}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5475,13 @@
         <v>89212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -5484,13 +5490,13 @@
         <v>100151</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -5499,13 +5505,13 @@
         <v>189363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5526,13 @@
         <v>204549</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>178</v>
@@ -5535,13 +5541,13 @@
         <v>188552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
@@ -5550,13 +5556,13 @@
         <v>393101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5630,13 @@
         <v>142294</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -5639,13 +5645,13 @@
         <v>169172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -5654,13 +5660,13 @@
         <v>311465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5681,13 @@
         <v>360281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>323</v>
@@ -5690,13 +5696,13 @@
         <v>353912</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>666</v>
@@ -5705,13 +5711,13 @@
         <v>714194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,10 +5788,10 @@
         <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5794,13 +5800,13 @@
         <v>104902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -5809,13 +5815,13 @@
         <v>199696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,10 +5839,10 @@
         <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5845,13 +5851,13 @@
         <v>231407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -5860,13 +5866,13 @@
         <v>455178</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5940,13 @@
         <v>114201</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>137</v>
@@ -5949,13 +5955,13 @@
         <v>146663</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -5964,13 +5970,13 @@
         <v>260864</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5991,13 @@
         <v>255763</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -6000,13 +6006,13 @@
         <v>240620</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -6015,13 +6021,13 @@
         <v>496383</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6095,13 @@
         <v>34601</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -6104,13 +6110,13 @@
         <v>56423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -6119,13 +6125,13 @@
         <v>91025</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6146,13 @@
         <v>176620</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -6155,13 +6161,13 @@
         <v>162164</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -6170,13 +6176,13 @@
         <v>338783</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6250,13 @@
         <v>93905</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -6259,13 +6265,13 @@
         <v>112797</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -6274,13 +6280,13 @@
         <v>206702</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6301,13 @@
         <v>169218</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -6310,13 +6316,13 @@
         <v>160318</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -6325,13 +6331,13 @@
         <v>329536</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,10 +6563,10 @@
         <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -6569,13 +6575,13 @@
         <v>277205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -6584,13 +6590,13 @@
         <v>509363</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6611,13 @@
         <v>546425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -6620,13 +6626,13 @@
         <v>548962</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>1029</v>
@@ -6635,13 +6641,13 @@
         <v>1095387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6715,13 @@
         <v>986348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
@@ -6724,13 +6730,13 @@
         <v>1224171</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>73</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>2087</v>
@@ -6739,13 +6745,13 @@
         <v>2210518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6766,13 @@
         <v>2408002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>2172</v>
@@ -6775,13 +6781,13 @@
         <v>2320371</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="M29" s="7">
         <v>4482</v>
@@ -6790,13 +6796,13 @@
         <v>4728374</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2134362-A71F-4F7F-8FF3-8FC64B8143D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3DE741-E171-43DD-932A-D8159C6BE8A9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6899,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +7006,13 @@
         <v>96853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7015,13 +7021,13 @@
         <v>106822</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M4" s="7">
         <v>317</v>
@@ -7030,13 +7036,13 @@
         <v>203674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7057,13 @@
         <v>163445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>336</v>
@@ -7066,13 +7072,13 @@
         <v>163513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>551</v>
@@ -7081,13 +7087,13 @@
         <v>326959</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7161,13 @@
         <v>127771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -7170,13 +7176,13 @@
         <v>148473</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -7185,13 +7191,13 @@
         <v>276245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7212,13 @@
         <v>390584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -7221,13 +7227,13 @@
         <v>402609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -7236,13 +7242,13 @@
         <v>793192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7316,13 @@
         <v>65542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -7325,13 +7331,13 @@
         <v>112914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -7340,13 +7346,13 @@
         <v>178456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7367,13 @@
         <v>254131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
@@ -7376,13 +7382,13 @@
         <v>259057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -7391,13 +7397,13 @@
         <v>513187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7471,13 @@
         <v>125417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -7480,13 +7486,13 @@
         <v>185826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
@@ -7495,13 +7501,13 @@
         <v>311243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>522</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7522,13 @@
         <v>196224</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -7531,13 +7537,13 @@
         <v>238431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>552</v>
@@ -7546,13 +7552,13 @@
         <v>434655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7626,13 @@
         <v>24302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -7635,13 +7641,13 @@
         <v>40859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -7650,13 +7656,13 @@
         <v>65161</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7677,13 @@
         <v>172446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H17" s="7">
         <v>402</v>
@@ -7686,13 +7692,13 @@
         <v>188191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M17" s="7">
         <v>649</v>
@@ -7701,13 +7707,13 @@
         <v>360636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7781,13 @@
         <v>66605</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -7790,13 +7796,13 @@
         <v>79192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -7805,13 +7811,13 @@
         <v>145797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7832,13 @@
         <v>210618</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
@@ -7841,13 +7847,13 @@
         <v>196430</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M20" s="7">
         <v>632</v>
@@ -7856,13 +7862,13 @@
         <v>407048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7936,13 @@
         <v>214944</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>36</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -7945,13 +7951,13 @@
         <v>267580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>560</v>
@@ -7960,13 +7966,13 @@
         <v>482524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7987,13 @@
         <v>400083</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -7996,13 +8002,13 @@
         <v>522334</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>966</v>
@@ -8011,13 +8017,13 @@
         <v>922417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8091,13 @@
         <v>160445</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -8100,13 +8106,13 @@
         <v>206641</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M25" s="7">
         <v>385</v>
@@ -8115,13 +8121,13 @@
         <v>367086</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8142,13 @@
         <v>691200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H26" s="7">
         <v>809</v>
@@ -8151,13 +8157,13 @@
         <v>653116</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M26" s="7">
         <v>1424</v>
@@ -8166,13 +8172,13 @@
         <v>1344316</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8246,13 @@
         <v>881879</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>273</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H28" s="7">
         <v>1577</v>
@@ -8255,13 +8261,13 @@
         <v>1148307</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M28" s="7">
         <v>2410</v>
@@ -8270,13 +8276,13 @@
         <v>2030186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8297,13 @@
         <v>2478730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H29" s="7">
         <v>3736</v>
@@ -8306,13 +8312,13 @@
         <v>2623681</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M29" s="7">
         <v>6255</v>
@@ -8321,13 +8327,13 @@
         <v>5102411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{886D9D54-4D5D-431B-B4FB-33313ADC2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DEBD117-580C-42B8-B00C-588969D472A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1DB47D20-F6D1-4357-9486-9D507697041F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AC6C906-9B7F-47E4-95BB-47098FA18DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>80,22%</t>
   </si>
   <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>28,72%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>31,87%</t>
@@ -161,31 +161,31 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>35,01%</t>
+    <t>35,22%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>65,04%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>68,13%</t>
   </si>
   <si>
-    <t>64,99%</t>
+    <t>64,78%</t>
   </si>
   <si>
     <t>70,98%</t>
@@ -197,1705 +197,1729 @@
     <t>22,36%</t>
   </si>
   <si>
-    <t>17,79%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>27,28%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>78,66%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E29C619-98D7-43A1-98BE-0DDD464E89A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630CA4AA-B08F-4F18-8BFC-888D4BDB3406}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2932,7 +2956,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2971,13 @@
         <v>263813</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>258</v>
@@ -2962,13 +2986,13 @@
         <v>249005</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>526</v>
@@ -2977,13 +3001,13 @@
         <v>512818</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,7 +3063,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3051,13 +3075,13 @@
         <v>68057</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3066,13 +3090,13 @@
         <v>59962</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>126</v>
@@ -3081,13 +3105,13 @@
         <v>128019</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3126,13 @@
         <v>135251</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
@@ -3117,13 +3141,13 @@
         <v>147706</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>278</v>
@@ -3132,13 +3156,13 @@
         <v>282957</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3218,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3206,13 +3230,13 @@
         <v>53083</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -3221,13 +3245,13 @@
         <v>95579</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -3236,13 +3260,13 @@
         <v>148662</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3281,13 @@
         <v>217728</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -3272,13 +3296,13 @@
         <v>182565</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>389</v>
@@ -3287,13 +3311,13 @@
         <v>400293</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,7 +3373,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3361,13 +3385,13 @@
         <v>177336</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>238</v>
@@ -3376,13 +3400,13 @@
         <v>243102</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>411</v>
@@ -3391,13 +3415,13 @@
         <v>420437</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3436,13 @@
         <v>436779</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>383</v>
@@ -3427,13 +3451,13 @@
         <v>395117</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>807</v>
@@ -3442,13 +3466,13 @@
         <v>831897</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3516,13 +3540,13 @@
         <v>154688</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -3531,13 +3555,13 @@
         <v>208177</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>350</v>
@@ -3546,13 +3570,13 @@
         <v>362865</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3591,13 @@
         <v>589107</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>550</v>
@@ -3582,13 +3606,13 @@
         <v>575334</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1131</v>
@@ -3597,13 +3621,13 @@
         <v>1164441</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3695,13 @@
         <v>814918</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1036</v>
@@ -3686,13 +3710,13 @@
         <v>1058996</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1839</v>
@@ -3701,13 +3725,13 @@
         <v>1873914</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,16 +3743,16 @@
         <v>2410</v>
       </c>
       <c r="D29" s="7">
-        <v>2460714</v>
+        <v>2460713</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2260</v>
@@ -3737,13 +3761,13 @@
         <v>2319276</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4670</v>
@@ -3752,13 +3776,13 @@
         <v>4779990</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,7 +3794,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275632</v>
+        <v>3275631</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3838,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D15298-096C-4D9D-8EAF-955AE25BCEE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A720B58-8502-4B25-AABE-298E40823878}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3960,39 +3984,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,39 +4029,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,39 +4074,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4123,13 @@
         <v>124857</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>124</v>
@@ -4114,13 +4138,13 @@
         <v>133790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>242</v>
@@ -4129,13 +4153,13 @@
         <v>258648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4174,13 @@
         <v>380670</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4165,13 +4189,13 @@
         <v>389975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>710</v>
@@ -4180,13 +4204,13 @@
         <v>770644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4278,13 @@
         <v>75424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -4269,13 +4293,13 @@
         <v>122897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -4284,13 +4308,13 @@
         <v>198321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4329,13 @@
         <v>247259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -4320,13 +4344,13 @@
         <v>218123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -4335,13 +4359,13 @@
         <v>465382</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4433,13 @@
         <v>175314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -4424,13 +4448,13 @@
         <v>178157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -4439,13 +4463,13 @@
         <v>353471</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4484,13 @@
         <v>492256</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -4475,13 +4499,13 @@
         <v>498039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>920</v>
@@ -4490,13 +4514,13 @@
         <v>990295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,7 +4576,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4564,13 +4588,13 @@
         <v>41320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4579,13 +4603,13 @@
         <v>71393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -4594,13 +4618,13 @@
         <v>112713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4639,13 @@
         <v>171298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -4630,13 +4654,13 @@
         <v>147234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -4645,13 +4669,13 @@
         <v>318532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4731,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4719,13 +4743,13 @@
         <v>83580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4734,13 +4758,13 @@
         <v>84973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4749,13 +4773,13 @@
         <v>168553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4794,13 @@
         <v>190401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -4785,13 +4809,13 @@
         <v>195058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>375</v>
@@ -4800,13 +4824,13 @@
         <v>385459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4886,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4874,13 +4898,13 @@
         <v>161356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>215</v>
@@ -4889,13 +4913,13 @@
         <v>233063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
@@ -4904,13 +4928,13 @@
         <v>394419</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4949,13 @@
         <v>501432</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>421</v>
@@ -4940,13 +4964,13 @@
         <v>460790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>887</v>
@@ -4955,13 +4979,13 @@
         <v>962222</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5041,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5029,13 +5053,13 @@
         <v>182744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>232</v>
@@ -5044,13 +5068,13 @@
         <v>254583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>403</v>
@@ -5059,13 +5083,13 @@
         <v>437327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5104,13 @@
         <v>596354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>525</v>
@@ -5095,13 +5119,13 @@
         <v>569270</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1071</v>
@@ -5110,13 +5134,13 @@
         <v>1165624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5208,13 @@
         <v>844597</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H28" s="7">
         <v>996</v>
@@ -5199,10 +5223,10 @@
         <v>1078857</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>310</v>
@@ -5217,10 +5241,10 @@
         <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,10 +5262,10 @@
         <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>2301</v>
@@ -5250,13 +5274,13 @@
         <v>2478488</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>4711</v>
@@ -5265,13 +5289,13 @@
         <v>5058157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5351,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A80EDD-EA37-45AD-9782-10C0937EA368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F5E90B-7991-4388-A351-E12219B88AD9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5368,7 +5392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5475,13 +5499,13 @@
         <v>89212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -5490,13 +5514,13 @@
         <v>100151</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -5505,13 +5529,13 @@
         <v>189363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5550,13 @@
         <v>204549</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>178</v>
@@ -5541,13 +5565,13 @@
         <v>188552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
@@ -5556,13 +5580,13 @@
         <v>393101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5654,13 @@
         <v>142294</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -5645,13 +5669,13 @@
         <v>169172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -5660,13 +5684,13 @@
         <v>311465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5705,13 @@
         <v>360281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>323</v>
@@ -5696,13 +5720,13 @@
         <v>353912</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>666</v>
@@ -5711,13 +5735,13 @@
         <v>714194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,10 +5812,10 @@
         <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5800,13 +5824,13 @@
         <v>104902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -5815,13 +5839,13 @@
         <v>199696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5860,13 @@
         <v>223771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5851,13 +5875,13 @@
         <v>231407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -5866,13 +5890,13 @@
         <v>455178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5964,13 @@
         <v>114201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>137</v>
@@ -5955,13 +5979,13 @@
         <v>146663</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -5970,13 +5994,13 @@
         <v>260864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6015,13 @@
         <v>255763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -6006,13 +6030,13 @@
         <v>240620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -6021,13 +6045,13 @@
         <v>496383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,7 +6107,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6095,13 +6119,13 @@
         <v>34601</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -6110,13 +6134,13 @@
         <v>56423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -6125,13 +6149,13 @@
         <v>91025</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6170,13 @@
         <v>176620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -6161,13 +6185,13 @@
         <v>162164</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -6176,13 +6200,13 @@
         <v>338783</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,7 +6262,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6250,13 +6274,13 @@
         <v>93905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -6265,13 +6289,13 @@
         <v>112797</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -6280,13 +6304,13 @@
         <v>206702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6325,13 @@
         <v>169218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -6316,13 +6340,13 @@
         <v>160318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -6331,13 +6355,13 @@
         <v>329536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,7 +6417,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6405,13 +6429,13 @@
         <v>185184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -6420,13 +6444,13 @@
         <v>256857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -6435,13 +6459,13 @@
         <v>442040</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6480,13 @@
         <v>471374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>405</v>
@@ -6471,13 +6495,13 @@
         <v>434437</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>825</v>
@@ -6486,13 +6510,13 @@
         <v>905812</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,7 +6572,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6560,13 +6584,13 @@
         <v>232158</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -6575,13 +6599,13 @@
         <v>277205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -6590,13 +6614,13 @@
         <v>509363</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6635,13 @@
         <v>546425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -6626,13 +6650,13 @@
         <v>548962</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>1029</v>
@@ -6641,13 +6665,13 @@
         <v>1095387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6739,13 @@
         <v>986348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
@@ -6730,13 +6754,13 @@
         <v>1224171</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>73</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>374</v>
       </c>
       <c r="M28" s="7">
         <v>2087</v>
@@ -6745,13 +6769,13 @@
         <v>2210518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6790,13 @@
         <v>2408002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>2172</v>
@@ -6781,13 +6805,13 @@
         <v>2320371</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>4482</v>
@@ -6796,13 +6820,13 @@
         <v>4728374</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6882,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +6906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3DE741-E171-43DD-932A-D8159C6BE8A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FCB62C-5827-4AB3-B262-FFB5D3188F90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6899,7 +6923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7006,13 +7030,13 @@
         <v>96853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7021,13 +7045,13 @@
         <v>106822</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>317</v>
@@ -7036,13 +7060,13 @@
         <v>203674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7081,13 @@
         <v>163445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>336</v>
@@ -7072,13 +7096,13 @@
         <v>163513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>551</v>
@@ -7087,13 +7111,13 @@
         <v>326959</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7185,13 @@
         <v>127771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -7176,13 +7200,13 @@
         <v>148473</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -7191,13 +7215,13 @@
         <v>276245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7236,13 @@
         <v>390584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
@@ -7227,13 +7251,13 @@
         <v>402609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -7242,13 +7266,13 @@
         <v>793192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7340,13 @@
         <v>65542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -7331,13 +7355,13 @@
         <v>112914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -7346,13 +7370,13 @@
         <v>178456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,28 +7391,28 @@
         <v>254131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
       </c>
       <c r="I11" s="7">
-        <v>259057</v>
+        <v>259056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -7397,13 +7421,13 @@
         <v>513187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,7 +7454,7 @@
         <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>371971</v>
+        <v>371970</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7471,13 +7495,13 @@
         <v>125417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -7486,13 +7510,13 @@
         <v>185826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
@@ -7501,13 +7525,13 @@
         <v>311243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7546,13 @@
         <v>196224</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -7537,13 +7561,13 @@
         <v>238431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>552</v>
@@ -7552,13 +7576,13 @@
         <v>434655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,7 +7638,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7626,13 +7650,13 @@
         <v>24302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -7641,13 +7665,13 @@
         <v>40859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -7656,13 +7680,13 @@
         <v>65161</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7701,13 @@
         <v>172446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H17" s="7">
         <v>402</v>
@@ -7692,13 +7716,13 @@
         <v>188191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="M17" s="7">
         <v>649</v>
@@ -7707,13 +7731,13 @@
         <v>360636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,7 +7793,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7781,13 +7805,13 @@
         <v>66605</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
@@ -7796,13 +7820,13 @@
         <v>79192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
@@ -7811,13 +7835,13 @@
         <v>145797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>560</v>
+        <v>497</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7856,13 @@
         <v>210618</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
@@ -7847,13 +7871,13 @@
         <v>196430</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>632</v>
@@ -7862,13 +7886,13 @@
         <v>407048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,7 +7948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7936,13 +7960,13 @@
         <v>214944</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
@@ -7951,13 +7975,13 @@
         <v>267580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>560</v>
@@ -7966,13 +7990,13 @@
         <v>482524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +8011,13 @@
         <v>400083</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>465</v>
+        <v>590</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -8002,13 +8026,13 @@
         <v>522334</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>966</v>
@@ -8017,13 +8041,13 @@
         <v>922417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,7 +8103,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8091,13 +8115,13 @@
         <v>160445</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -8106,13 +8130,13 @@
         <v>206641</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M25" s="7">
         <v>385</v>
@@ -8121,13 +8145,13 @@
         <v>367086</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8166,13 @@
         <v>691200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="H26" s="7">
         <v>809</v>
@@ -8157,13 +8181,13 @@
         <v>653116</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>1424</v>
@@ -8172,13 +8196,13 @@
         <v>1344316</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8270,13 @@
         <v>881879</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>273</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>1577</v>
@@ -8261,28 +8285,28 @@
         <v>1148307</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>605</v>
+        <v>220</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>606</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
         <v>2410</v>
       </c>
       <c r="N28" s="7">
-        <v>2030186</v>
+        <v>2030185</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8321,13 @@
         <v>2478730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>282</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>3736</v>
@@ -8312,13 +8336,13 @@
         <v>2623681</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>613</v>
+        <v>228</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>615</v>
+        <v>61</v>
       </c>
       <c r="M29" s="7">
         <v>6255</v>
@@ -8327,13 +8351,13 @@
         <v>5102411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,7 +8399,7 @@
         <v>8665</v>
       </c>
       <c r="N30" s="7">
-        <v>7132597</v>
+        <v>7132596</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8389,7 +8413,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DEBD117-580C-42B8-B00C-588969D472A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{632BFFD3-3809-478F-AFE5-90769ADB0DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AC6C906-9B7F-47E4-95BB-47098FA18DAB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{938B7F45-D2FA-4D75-B248-8849CD15310B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="642">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>24,7%</t>
@@ -686,58 +737,58 @@
     <t>73,88%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>19,43%</t>
@@ -1466,460 +1517,454 @@
     <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630CA4AA-B08F-4F18-8BFC-888D4BDB3406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32324B8A-DAB4-42AE-9FF4-D82EFD1DADB9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3862,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A720B58-8502-4B25-AABE-298E40823878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC1B21E-4207-4325-82B3-3FC0EBFCC789}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,43 +4025,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="7">
+        <v>75396</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="I4" s="7">
+        <v>76939</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="N4" s="7">
+        <v>152335</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,43 +4076,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="D5" s="7">
+        <v>218192</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="I5" s="7">
+        <v>210306</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>395</v>
+      </c>
+      <c r="N5" s="7">
+        <v>428498</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,43 +4127,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293588</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>537</v>
+      </c>
+      <c r="N6" s="7">
+        <v>580833</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4186,13 @@
         <v>124857</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>124</v>
@@ -4141,10 +4204,10 @@
         <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>242</v>
@@ -4153,13 +4216,13 @@
         <v>258648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4237,13 @@
         <v>380670</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4192,10 +4255,10 @@
         <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>710</v>
@@ -4204,13 +4267,13 @@
         <v>770644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,10 +4341,10 @@
         <v>75424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>74</v>
@@ -4293,13 +4356,13 @@
         <v>122897</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -4308,13 +4371,13 @@
         <v>198321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4392,13 @@
         <v>247259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -4344,13 +4407,13 @@
         <v>218123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -4359,13 +4422,13 @@
         <v>465382</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>175314</v>
+        <v>99918</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7">
-        <v>178157</v>
+        <v>101218</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="N13" s="7">
-        <v>353471</v>
+        <v>201136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,49 +4541,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>457</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7">
-        <v>492256</v>
+        <v>274064</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>463</v>
+        <v>274</v>
       </c>
       <c r="I14" s="7">
-        <v>498039</v>
+        <v>287733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>920</v>
+        <v>525</v>
       </c>
       <c r="N14" s="7">
-        <v>990295</v>
+        <v>561797</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>667570</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4544,10 +4607,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4559,10 +4622,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1252</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1343766</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4588,13 +4651,13 @@
         <v>41320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4603,13 +4666,13 @@
         <v>71393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -4618,13 +4681,13 @@
         <v>112713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4702,13 @@
         <v>171298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>142</v>
@@ -4654,13 +4717,13 @@
         <v>147234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -4669,13 +4732,13 @@
         <v>318532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4806,13 @@
         <v>83580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4758,13 +4821,13 @@
         <v>84973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4773,13 +4836,13 @@
         <v>168553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4857,13 @@
         <v>190401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -4809,13 +4872,13 @@
         <v>195058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>375</v>
@@ -4824,13 +4887,13 @@
         <v>385459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4961,13 @@
         <v>161356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>215</v>
@@ -4913,13 +4976,13 @@
         <v>233063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
@@ -4928,13 +4991,13 @@
         <v>394419</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +5012,13 @@
         <v>501432</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>421</v>
@@ -4964,13 +5027,13 @@
         <v>460790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>887</v>
@@ -4979,13 +5042,13 @@
         <v>962222</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5116,13 @@
         <v>182744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>232</v>
@@ -5068,13 +5131,13 @@
         <v>254583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>403</v>
@@ -5083,13 +5146,13 @@
         <v>437327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5167,13 @@
         <v>596354</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>525</v>
@@ -5119,13 +5182,13 @@
         <v>569270</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>1071</v>
@@ -5134,13 +5197,13 @@
         <v>1165624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5271,13 @@
         <v>844597</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>996</v>
@@ -5223,13 +5286,13 @@
         <v>1078857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>1793</v>
@@ -5238,13 +5301,13 @@
         <v>1923453</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5322,13 @@
         <v>2579669</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>2301</v>
@@ -5274,13 +5337,13 @@
         <v>2478488</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>4711</v>
@@ -5289,10 +5352,10 @@
         <v>5058157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>78</v>
@@ -5375,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F5E90B-7991-4388-A351-E12219B88AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738CC529-4D7F-4EC4-8C09-B1D244E144D6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5562,13 @@
         <v>89212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -5514,13 +5577,13 @@
         <v>100151</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -5529,13 +5592,13 @@
         <v>189363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5613,13 @@
         <v>204549</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>178</v>
@@ -5565,13 +5628,13 @@
         <v>188552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
@@ -5580,13 +5643,13 @@
         <v>393101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5717,13 @@
         <v>142294</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -5669,13 +5732,13 @@
         <v>169172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -5684,13 +5747,13 @@
         <v>311465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5768,13 @@
         <v>360281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>323</v>
@@ -5720,13 +5783,13 @@
         <v>353912</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="M8" s="7">
         <v>666</v>
@@ -5735,13 +5798,13 @@
         <v>714194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,10 +5875,10 @@
         <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -5824,13 +5887,13 @@
         <v>104902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -5839,13 +5902,13 @@
         <v>199696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,10 +5926,10 @@
         <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -5875,13 +5938,13 @@
         <v>231407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -5890,13 +5953,13 @@
         <v>455178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +6027,13 @@
         <v>114201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>137</v>
@@ -5979,13 +6042,13 @@
         <v>146663</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -5994,13 +6057,13 @@
         <v>260864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6078,13 @@
         <v>255763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -6030,13 +6093,13 @@
         <v>240620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -6045,13 +6108,13 @@
         <v>496383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6182,13 @@
         <v>34601</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -6134,13 +6197,13 @@
         <v>56423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -6149,13 +6212,13 @@
         <v>91025</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6233,13 @@
         <v>176620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -6185,13 +6248,13 @@
         <v>162164</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -6200,13 +6263,13 @@
         <v>338783</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6337,13 @@
         <v>93905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -6289,13 +6352,13 @@
         <v>112797</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -6304,13 +6367,13 @@
         <v>206702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6388,13 @@
         <v>169218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -6340,13 +6403,13 @@
         <v>160318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -6355,13 +6418,13 @@
         <v>329536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6492,13 @@
         <v>185184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>241</v>
@@ -6444,13 +6507,13 @@
         <v>256857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -6459,13 +6522,13 @@
         <v>442040</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6543,13 @@
         <v>471374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>405</v>
@@ -6495,13 +6558,13 @@
         <v>434437</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>825</v>
@@ -6510,13 +6573,13 @@
         <v>905812</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6647,13 @@
         <v>232158</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -6599,13 +6662,13 @@
         <v>277205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
@@ -6614,13 +6677,13 @@
         <v>509363</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6698,13 @@
         <v>546425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -6650,13 +6713,13 @@
         <v>548962</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
         <v>1029</v>
@@ -6665,13 +6728,13 @@
         <v>1095387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6802,13 @@
         <v>986348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
@@ -6754,13 +6817,13 @@
         <v>1224171</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="M28" s="7">
         <v>2087</v>
@@ -6769,13 +6832,13 @@
         <v>2210518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6853,13 @@
         <v>2408002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="H29" s="7">
         <v>2172</v>
@@ -6805,13 +6868,13 @@
         <v>2320371</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>4482</v>
@@ -6820,13 +6883,13 @@
         <v>4728374</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,7 +6969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FCB62C-5827-4AB3-B262-FFB5D3188F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B495DB-935F-4C4F-B7F9-5F859DB44621}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7027,46 +7090,46 @@
         <v>116</v>
       </c>
       <c r="D4" s="7">
-        <v>96853</v>
+        <v>116205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
       </c>
       <c r="I4" s="7">
-        <v>106822</v>
+        <v>114507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>317</v>
       </c>
       <c r="N4" s="7">
-        <v>203674</v>
+        <v>230712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,46 +7141,46 @@
         <v>215</v>
       </c>
       <c r="D5" s="7">
-        <v>163445</v>
+        <v>195238</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>336</v>
       </c>
       <c r="I5" s="7">
-        <v>163513</v>
+        <v>173845</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>551</v>
       </c>
       <c r="N5" s="7">
-        <v>326959</v>
+        <v>369083</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7192,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7144,7 +7207,7 @@
         <v>537</v>
       </c>
       <c r="I6" s="7">
-        <v>270335</v>
+        <v>288352</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7159,7 +7222,7 @@
         <v>868</v>
       </c>
       <c r="N6" s="7">
-        <v>530633</v>
+        <v>599795</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7182,46 +7245,46 @@
         <v>86</v>
       </c>
       <c r="D7" s="7">
-        <v>127771</v>
+        <v>126950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
       </c>
       <c r="I7" s="7">
-        <v>148473</v>
+        <v>138025</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
       </c>
       <c r="N7" s="7">
-        <v>276245</v>
+        <v>264975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,46 +7296,46 @@
         <v>295</v>
       </c>
       <c r="D8" s="7">
-        <v>390584</v>
+        <v>390563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>524</v>
       </c>
       <c r="I8" s="7">
-        <v>402609</v>
+        <v>374000</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
       </c>
       <c r="N8" s="7">
-        <v>793192</v>
+        <v>764563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,7 +7347,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518355</v>
+        <v>517513</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7299,7 +7362,7 @@
         <v>713</v>
       </c>
       <c r="I9" s="7">
-        <v>551082</v>
+        <v>512025</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7314,7 +7377,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1069437</v>
+        <v>1029538</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7337,46 +7400,46 @@
         <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>65542</v>
+        <v>64312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
       </c>
       <c r="I10" s="7">
-        <v>112914</v>
+        <v>106038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
       </c>
       <c r="N10" s="7">
-        <v>178456</v>
+        <v>170350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,46 +7451,46 @@
         <v>282</v>
       </c>
       <c r="D11" s="7">
-        <v>254131</v>
+        <v>249313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="H11" s="7">
         <v>380</v>
       </c>
       <c r="I11" s="7">
-        <v>259056</v>
+        <v>241868</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
       </c>
       <c r="N11" s="7">
-        <v>513187</v>
+        <v>491181</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,7 +7502,7 @@
         <v>356</v>
       </c>
       <c r="D12" s="7">
-        <v>319673</v>
+        <v>313625</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7454,7 +7517,7 @@
         <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>371970</v>
+        <v>347906</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7469,7 +7532,7 @@
         <v>890</v>
       </c>
       <c r="N12" s="7">
-        <v>691643</v>
+        <v>661531</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7492,46 +7555,46 @@
         <v>105</v>
       </c>
       <c r="D13" s="7">
-        <v>125417</v>
+        <v>120505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
       </c>
       <c r="I13" s="7">
-        <v>185826</v>
+        <v>194989</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
       </c>
       <c r="N13" s="7">
-        <v>311243</v>
+        <v>315494</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,46 +7606,46 @@
         <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>196224</v>
+        <v>191481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>238431</v>
+        <v>276699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="M14" s="7">
         <v>552</v>
       </c>
       <c r="N14" s="7">
-        <v>434655</v>
+        <v>468180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,7 +7657,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321641</v>
+        <v>311986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7609,7 +7672,7 @@
         <v>591</v>
       </c>
       <c r="I15" s="7">
-        <v>424257</v>
+        <v>471688</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7624,7 +7687,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745898</v>
+        <v>783674</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7647,46 +7710,46 @@
         <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>24302</v>
+        <v>21966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
       </c>
       <c r="I16" s="7">
-        <v>40859</v>
+        <v>36998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
       </c>
       <c r="N16" s="7">
-        <v>65161</v>
+        <v>58965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,46 +7761,46 @@
         <v>247</v>
       </c>
       <c r="D17" s="7">
-        <v>172446</v>
+        <v>156776</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="H17" s="7">
         <v>402</v>
       </c>
       <c r="I17" s="7">
-        <v>188191</v>
+        <v>169113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>649</v>
       </c>
       <c r="N17" s="7">
-        <v>360636</v>
+        <v>325888</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,7 +7812,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7764,7 +7827,7 @@
         <v>486</v>
       </c>
       <c r="I18" s="7">
-        <v>229050</v>
+        <v>206111</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7779,7 +7842,7 @@
         <v>765</v>
       </c>
       <c r="N18" s="7">
-        <v>425797</v>
+        <v>384853</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7802,46 +7865,46 @@
         <v>78</v>
       </c>
       <c r="D19" s="7">
-        <v>66605</v>
+        <v>65155</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="H19" s="7">
         <v>121</v>
       </c>
       <c r="I19" s="7">
-        <v>79192</v>
+        <v>73486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="M19" s="7">
         <v>199</v>
       </c>
       <c r="N19" s="7">
-        <v>145797</v>
+        <v>138641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,46 +7916,46 @@
         <v>293</v>
       </c>
       <c r="D20" s="7">
-        <v>210618</v>
+        <v>204481</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
       </c>
       <c r="I20" s="7">
-        <v>196430</v>
+        <v>183570</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="M20" s="7">
         <v>632</v>
       </c>
       <c r="N20" s="7">
-        <v>407048</v>
+        <v>388051</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>523</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>507</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,7 +7967,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7919,7 +7982,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7934,7 +7997,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7957,46 +8020,46 @@
         <v>201</v>
       </c>
       <c r="D22" s="7">
-        <v>214944</v>
+        <v>212827</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>359</v>
       </c>
       <c r="I22" s="7">
-        <v>267580</v>
+        <v>249001</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>560</v>
       </c>
       <c r="N22" s="7">
-        <v>482524</v>
+        <v>461828</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,46 +8071,46 @@
         <v>386</v>
       </c>
       <c r="D23" s="7">
-        <v>400083</v>
+        <v>398666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
       </c>
       <c r="I23" s="7">
-        <v>522334</v>
+        <v>587267</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="M23" s="7">
         <v>966</v>
       </c>
       <c r="N23" s="7">
-        <v>922417</v>
+        <v>985932</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,7 +8122,7 @@
         <v>587</v>
       </c>
       <c r="D24" s="7">
-        <v>615027</v>
+        <v>611493</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8074,7 +8137,7 @@
         <v>939</v>
       </c>
       <c r="I24" s="7">
-        <v>789914</v>
+        <v>836268</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8089,7 +8152,7 @@
         <v>1526</v>
       </c>
       <c r="N24" s="7">
-        <v>1404941</v>
+        <v>1447760</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8112,46 +8175,46 @@
         <v>141</v>
       </c>
       <c r="D25" s="7">
-        <v>160445</v>
+        <v>134792</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
       </c>
       <c r="I25" s="7">
-        <v>206641</v>
+        <v>171190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="M25" s="7">
         <v>385</v>
       </c>
       <c r="N25" s="7">
-        <v>367086</v>
+        <v>305982</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,46 +8226,46 @@
         <v>615</v>
       </c>
       <c r="D26" s="7">
-        <v>691200</v>
+        <v>787303</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="H26" s="7">
         <v>809</v>
       </c>
       <c r="I26" s="7">
-        <v>653116</v>
+        <v>539219</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>572</v>
+        <v>626</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="M26" s="7">
         <v>1424</v>
       </c>
       <c r="N26" s="7">
-        <v>1344316</v>
+        <v>1326522</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,7 +8277,7 @@
         <v>756</v>
       </c>
       <c r="D27" s="7">
-        <v>851645</v>
+        <v>922095</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8229,7 +8292,7 @@
         <v>1053</v>
       </c>
       <c r="I27" s="7">
-        <v>859757</v>
+        <v>710409</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8244,7 +8307,7 @@
         <v>1809</v>
       </c>
       <c r="N27" s="7">
-        <v>1711402</v>
+        <v>1632504</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8267,46 +8330,46 @@
         <v>833</v>
       </c>
       <c r="D28" s="7">
-        <v>881879</v>
+        <v>862713</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>340</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="H28" s="7">
         <v>1577</v>
       </c>
       <c r="I28" s="7">
-        <v>1148307</v>
+        <v>1084234</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>220</v>
+        <v>634</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>635</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>616</v>
+        <v>359</v>
       </c>
       <c r="M28" s="7">
         <v>2410</v>
       </c>
       <c r="N28" s="7">
-        <v>2030185</v>
+        <v>1946946</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>617</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,46 +8381,46 @@
         <v>2519</v>
       </c>
       <c r="D29" s="7">
-        <v>2478730</v>
+        <v>2573819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>620</v>
+        <v>350</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="H29" s="7">
         <v>3736</v>
       </c>
       <c r="I29" s="7">
-        <v>2623681</v>
+        <v>2545580</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>228</v>
+        <v>639</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>623</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>640</v>
       </c>
       <c r="M29" s="7">
         <v>6255</v>
       </c>
       <c r="N29" s="7">
-        <v>5102411</v>
+        <v>5119400</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,7 +8432,7 @@
         <v>3352</v>
       </c>
       <c r="D30" s="7">
-        <v>3360609</v>
+        <v>3436532</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8384,7 +8447,7 @@
         <v>5313</v>
       </c>
       <c r="I30" s="7">
-        <v>3771988</v>
+        <v>3629814</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8399,7 +8462,7 @@
         <v>8665</v>
       </c>
       <c r="N30" s="7">
-        <v>7132596</v>
+        <v>7066346</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
